--- a/molekula_H2/potencialova_krivka_H2/potencialova_krivka_H2.xlsx
+++ b/molekula_H2/potencialova_krivka_H2/potencialova_krivka_H2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\miroi\Desktop\Git-projects\stredoskolska-odborna-cinnost-2024\molekula_H2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\miroi\Desktop\Git-projects\stredoskolska-odborna-cinnost-2024\molekula_H2\potencialova_krivka_H2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84DF040E-E46F-455D-BA3D-95428C2D0D70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0849C27-1B0D-4ED4-BD02-874C62516086}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4140" yWindow="2865" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hárok1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
   <si>
     <t>Potencialova krivka H2</t>
   </si>
@@ -64,13 +64,16 @@
   <si>
     <t>PM7(H2-2*H)</t>
   </si>
+  <si>
+    <t>PM7/ kJ/mol</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="169" formatCode="0.00000"/>
+    <numFmt numFmtId="164" formatCode="0.00000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -111,7 +114,7 @@
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -179,7 +182,17 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.14265048118985127"/>
+          <c:y val="9.7638888888888914E-2"/>
+          <c:w val="0.79708573928258963"/>
+          <c:h val="0.77736111111111106"/>
+        </c:manualLayout>
+      </c:layout>
       <c:scatterChart>
         <c:scatterStyle val="smoothMarker"/>
         <c:varyColors val="0"/>
@@ -493,7 +506,419 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="sk-SK"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hárok1!$D$29</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>PM7/ kJ/mol</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Hárok1!$C$30:$C$41</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0.316</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.40500000000000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.55600000000000005</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.64700000000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.67700000000000005</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.70799999999999996</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.83799999999999997</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.2070000000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Hárok1!$D$30:$D$41</c:f>
+              <c:numCache>
+                <c:formatCode>0.00000</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>4655.5476000000008</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>298.87804</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-400.66188</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-526.72847999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-547.95085999999992</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-561.82821000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-554.96952999999996</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-461.00288</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-299.08807000000002</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="General">
+                  <c:v>-147.91460999999998</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="General">
+                  <c:v>-10.841829999999959</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="General">
+                  <c:v>102.47381999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3B6F-4FA2-A10A-D7B772BCBF0C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="748494159"/>
+        <c:axId val="650576767"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="748494159"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="650576767"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="650576767"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="748494159"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1049,20 +1474,536 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1082,6 +2023,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>166687</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>52387</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Graf 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D23FD013-F4A3-A167-DAC5-A3B52D0A306B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1353,10 +2330,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C2:F22"/>
+  <dimension ref="C2:F41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="R29" sqref="R29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1418,7 +2395,7 @@
         <v>604883.22</v>
       </c>
       <c r="F10">
-        <f>E10-2*E_H_PM7</f>
+        <f t="shared" ref="F10:F22" si="0">E10-2*E_H_PM7</f>
         <v>604447.23045999999</v>
       </c>
     </row>
@@ -1433,7 +2410,7 @@
         <v>5091.5371400000004</v>
       </c>
       <c r="F11">
-        <f>E11-2*E_H_PM7</f>
+        <f t="shared" si="0"/>
         <v>4655.5476000000008</v>
       </c>
     </row>
@@ -1448,7 +2425,7 @@
         <v>734.86757999999998</v>
       </c>
       <c r="F12">
-        <f>E12-2*E_H_PM7</f>
+        <f t="shared" si="0"/>
         <v>298.87804</v>
       </c>
     </row>
@@ -1463,7 +2440,7 @@
         <v>35.327660000000002</v>
       </c>
       <c r="F13">
-        <f>E13-2*E_H_PM7</f>
+        <f t="shared" si="0"/>
         <v>-400.66188</v>
       </c>
     </row>
@@ -1478,7 +2455,7 @@
         <v>-90.738939999999999</v>
       </c>
       <c r="F14">
-        <f>E14-2*E_H_PM7</f>
+        <f t="shared" si="0"/>
         <v>-526.72847999999999</v>
       </c>
     </row>
@@ -1493,7 +2470,7 @@
         <v>-111.96132</v>
       </c>
       <c r="F15">
-        <f>E15-2*E_H_PM7</f>
+        <f t="shared" si="0"/>
         <v>-547.95085999999992</v>
       </c>
     </row>
@@ -1508,7 +2485,7 @@
         <v>-125.83866999999999</v>
       </c>
       <c r="F16">
-        <f>E16-2*E_H_PM7</f>
+        <f t="shared" si="0"/>
         <v>-561.82821000000001</v>
       </c>
     </row>
@@ -1523,7 +2500,7 @@
         <v>-118.97999</v>
       </c>
       <c r="F17">
-        <f>E17-2*E_H_PM7</f>
+        <f t="shared" si="0"/>
         <v>-554.96952999999996</v>
       </c>
     </row>
@@ -1538,7 +2515,7 @@
         <v>-25.013339999999999</v>
       </c>
       <c r="F18">
-        <f>E18-2*E_H_PM7</f>
+        <f t="shared" si="0"/>
         <v>-461.00288</v>
       </c>
     </row>
@@ -1553,7 +2530,7 @@
         <v>136.90146999999999</v>
       </c>
       <c r="F19">
-        <f>E19-2*E_H_PM7</f>
+        <f t="shared" si="0"/>
         <v>-299.08807000000002</v>
       </c>
     </row>
@@ -1565,7 +2542,7 @@
         <v>288.07492999999999</v>
       </c>
       <c r="F20">
-        <f>E20-2*E_H_PM7</f>
+        <f t="shared" si="0"/>
         <v>-147.91460999999998</v>
       </c>
     </row>
@@ -1577,7 +2554,7 @@
         <v>425.14771000000002</v>
       </c>
       <c r="F21">
-        <f>E21-2*E_H_PM7</f>
+        <f t="shared" si="0"/>
         <v>-10.841829999999959</v>
       </c>
     </row>
@@ -1589,7 +2566,111 @@
         <v>538.46335999999997</v>
       </c>
       <c r="F22">
-        <f>E22-2*E_H_PM7</f>
+        <f t="shared" si="0"/>
+        <v>102.47381999999999</v>
+      </c>
+    </row>
+    <row r="29" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C29" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C30">
+        <v>0.316</v>
+      </c>
+      <c r="D30" s="1">
+        <v>4655.5476000000008</v>
+      </c>
+    </row>
+    <row r="31" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C31">
+        <v>0.40500000000000003</v>
+      </c>
+      <c r="D31" s="1">
+        <v>298.87804</v>
+      </c>
+    </row>
+    <row r="32" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C32">
+        <v>0.55600000000000005</v>
+      </c>
+      <c r="D32" s="1">
+        <v>-400.66188</v>
+      </c>
+    </row>
+    <row r="33" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C33">
+        <v>0.64700000000000002</v>
+      </c>
+      <c r="D33" s="1">
+        <v>-526.72847999999999</v>
+      </c>
+    </row>
+    <row r="34" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C34">
+        <v>0.67700000000000005</v>
+      </c>
+      <c r="D34" s="1">
+        <v>-547.95085999999992</v>
+      </c>
+    </row>
+    <row r="35" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C35">
+        <v>0.70799999999999996</v>
+      </c>
+      <c r="D35" s="1">
+        <v>-561.82821000000001</v>
+      </c>
+    </row>
+    <row r="36" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C36">
+        <v>0.83799999999999997</v>
+      </c>
+      <c r="D36" s="1">
+        <v>-554.96952999999996</v>
+      </c>
+    </row>
+    <row r="37" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C37">
+        <v>1.002</v>
+      </c>
+      <c r="D37" s="1">
+        <v>-461.00288</v>
+      </c>
+    </row>
+    <row r="38" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C38">
+        <v>1.2070000000000001</v>
+      </c>
+      <c r="D38" s="1">
+        <v>-299.08807000000002</v>
+      </c>
+    </row>
+    <row r="39" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C39">
+        <v>1.4</v>
+      </c>
+      <c r="D39">
+        <v>-147.91460999999998</v>
+      </c>
+    </row>
+    <row r="40" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C40">
+        <v>1.6</v>
+      </c>
+      <c r="D40">
+        <v>-10.841829999999959</v>
+      </c>
+    </row>
+    <row r="41" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C41">
+        <v>1.8</v>
+      </c>
+      <c r="D41">
         <v>102.47381999999999</v>
       </c>
     </row>
